--- a/diurenmw/Excels/PlayerLevelAttribute_玩家等级属性表.xlsx
+++ b/diurenmw/Excels/PlayerLevelAttribute_玩家等级属性表.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,44 +119,391 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,66 +512,344 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -222,10 +860,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -263,71 +901,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,7 +993,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -378,11 +1016,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -391,13 +1029,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -407,7 +1045,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -416,7 +1054,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -425,7 +1063,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -433,10 +1071,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -496,160 +1134,155 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.575" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.0083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.575" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.0083333333333" style="1" customWidth="1"/>
+    <col min="6" max="11" width="13.575" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.575" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.575" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" ht="18.75" customHeight="1" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -661,27 +1294,27 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8">
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1000</v>
       </c>
-      <c r="D5" s="8">
-        <v>100</v>
-      </c>
-      <c r="E5" s="8">
-        <v>100</v>
-      </c>
-      <c r="F5" s="8">
-        <v>10</v>
+      <c r="D5" s="7">
+        <f>F5*5</f>
+        <v>400</v>
+      </c>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7">
+        <v>80</v>
       </c>
       <c r="G5" s="8">
         <v>10</v>
@@ -690,63 +1323,2181 @@
         <v>10</v>
       </c>
       <c r="I5" s="8">
+        <f t="shared" ref="I5:I7" si="0">G5*5</f>
+        <v>50</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" ref="J5:J7" si="1">H5*5</f>
+        <v>50</v>
+      </c>
+      <c r="K5" s="8">
+        <v>100</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="7">
+        <f>F6*5</f>
+        <v>500</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="8">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K6" s="8">
+        <v>150</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:13">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="7">
+        <f>F7*5</f>
+        <v>600</v>
+      </c>
+      <c r="E7" s="7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <v>120</v>
+      </c>
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="8">
+        <v>200</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" ref="D8:D54" si="2">F8*5</f>
+        <v>700</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7">
+        <v>140</v>
+      </c>
+      <c r="G8" s="8">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" ref="I8:I54" si="3">G8*5</f>
+        <v>125</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" ref="J8:J54" si="4">H8*5</f>
+        <v>125</v>
+      </c>
+      <c r="K8" s="8">
+        <v>250</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:13">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="E9" s="7">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7">
+        <v>160</v>
+      </c>
+      <c r="G9" s="8">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="K9" s="8">
+        <v>300</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:13">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3500</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="E10" s="7">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7">
+        <v>180</v>
+      </c>
+      <c r="G10" s="8">
+        <v>35</v>
+      </c>
+      <c r="H10" s="8">
+        <v>35</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="K10" s="8">
+        <v>350</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:13">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E11" s="7">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <v>200</v>
+      </c>
+      <c r="G11" s="8">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8">
+        <v>40</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="K11" s="8">
+        <v>400</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:13">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4500</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="E12" s="7">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7">
+        <v>220</v>
+      </c>
+      <c r="G12" s="8">
+        <v>45</v>
+      </c>
+      <c r="H12" s="8">
+        <v>45</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="K12" s="8">
+        <v>450</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="E13" s="7">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>240</v>
+      </c>
+      <c r="G13" s="8">
+        <v>50</v>
+      </c>
+      <c r="H13" s="8">
+        <v>50</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="K13" s="8">
+        <v>500</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="8">
+      <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="K5" s="8">
-        <v>100</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="C14" s="7">
+        <v>5500</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="E14" s="7">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7">
+        <v>260</v>
+      </c>
+      <c r="G14" s="8">
+        <v>55</v>
+      </c>
+      <c r="H14" s="8">
+        <v>55</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="K14" s="8">
+        <v>550</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:13">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6000</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7">
+        <v>280</v>
+      </c>
+      <c r="G15" s="8">
+        <v>60</v>
+      </c>
+      <c r="H15" s="8">
+        <v>60</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="K15" s="8">
+        <v>600</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:13">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6500</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7">
+        <v>300</v>
+      </c>
+      <c r="G16" s="8">
+        <v>65</v>
+      </c>
+      <c r="H16" s="8">
+        <v>65</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="K16" s="8">
+        <v>650</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:13">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7">
+        <v>320</v>
+      </c>
+      <c r="G17" s="8">
+        <v>70</v>
+      </c>
+      <c r="H17" s="8">
+        <v>70</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="K17" s="8">
+        <v>700</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:13">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7500</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7">
+        <v>340</v>
+      </c>
+      <c r="G18" s="8">
+        <v>75</v>
+      </c>
+      <c r="H18" s="8">
+        <v>75</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="K18" s="8">
+        <v>750</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:13">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8000</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>360</v>
+      </c>
+      <c r="G19" s="8">
+        <v>80</v>
+      </c>
+      <c r="H19" s="8">
+        <v>80</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K19" s="8">
+        <v>800</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8500</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>380</v>
+      </c>
+      <c r="G20" s="8">
+        <v>85</v>
+      </c>
+      <c r="H20" s="8">
+        <v>85</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="K20" s="8">
+        <v>850</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:13">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
+        <v>400</v>
+      </c>
+      <c r="G21" s="8">
+        <v>90</v>
+      </c>
+      <c r="H21" s="8">
+        <v>90</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="K21" s="8">
+        <v>900</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:13">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9500</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="E22" s="7">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7">
+        <v>420</v>
+      </c>
+      <c r="G22" s="8">
+        <v>95</v>
+      </c>
+      <c r="H22" s="8">
+        <v>95</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="4"/>
+        <v>475</v>
+      </c>
+      <c r="K22" s="8">
+        <v>950</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:13">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="E23" s="7">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7">
+        <v>440</v>
+      </c>
+      <c r="G23" s="8">
+        <v>100</v>
+      </c>
+      <c r="H23" s="8">
+        <v>100</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:13">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10500</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="E24" s="7">
+        <v>100</v>
+      </c>
+      <c r="F24" s="7">
+        <v>460</v>
+      </c>
+      <c r="G24" s="8">
+        <v>105</v>
+      </c>
+      <c r="H24" s="8">
+        <v>105</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1050</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:13">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11000</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="E25" s="7">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7">
+        <v>480</v>
+      </c>
+      <c r="G25" s="8">
+        <v>110</v>
+      </c>
+      <c r="H25" s="8">
+        <v>110</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1100</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:13">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>11500</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="E26" s="7">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7">
+        <v>500</v>
+      </c>
+      <c r="G26" s="8">
+        <v>115</v>
+      </c>
+      <c r="H26" s="8">
+        <v>115</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="3"/>
+        <v>575</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="4"/>
+        <v>575</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1150</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:13">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7">
+        <v>12000</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="2"/>
+        <v>2600</v>
+      </c>
+      <c r="E27" s="7">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7">
+        <v>520</v>
+      </c>
+      <c r="G27" s="8">
+        <v>120</v>
+      </c>
+      <c r="H27" s="8">
+        <v>120</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1200</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:13">
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12500</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="E28" s="7">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7">
+        <v>540</v>
+      </c>
+      <c r="G28" s="8">
+        <v>125</v>
+      </c>
+      <c r="H28" s="8">
+        <v>125</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="3"/>
+        <v>625</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="4"/>
+        <v>625</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1250</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:13">
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7">
+        <v>25</v>
+      </c>
+      <c r="C29" s="7">
+        <v>13000</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="E29" s="7">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7">
+        <v>560</v>
+      </c>
+      <c r="G29" s="8">
+        <v>130</v>
+      </c>
+      <c r="H29" s="8">
+        <v>130</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1300</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:13">
+      <c r="A30" s="7">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7">
+        <v>13500</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="E30" s="7">
+        <v>100</v>
+      </c>
+      <c r="F30" s="7">
+        <v>580</v>
+      </c>
+      <c r="G30" s="8">
+        <v>135</v>
+      </c>
+      <c r="H30" s="8">
+        <v>135</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="3"/>
+        <v>675</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="4"/>
+        <v>675</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1350</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:13">
+      <c r="A31" s="7">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7">
+        <v>27</v>
+      </c>
+      <c r="C31" s="7">
+        <v>14000</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E31" s="7">
+        <v>100</v>
+      </c>
+      <c r="F31" s="7">
+        <v>600</v>
+      </c>
+      <c r="G31" s="8">
+        <v>140</v>
+      </c>
+      <c r="H31" s="8">
+        <v>140</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1400</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:13">
+      <c r="A32" s="7">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7">
+        <v>28</v>
+      </c>
+      <c r="C32" s="7">
+        <v>14500</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+      <c r="E32" s="7">
+        <v>100</v>
+      </c>
+      <c r="F32" s="7">
+        <v>620</v>
+      </c>
+      <c r="G32" s="8">
+        <v>145</v>
+      </c>
+      <c r="H32" s="8">
+        <v>145</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="3"/>
+        <v>725</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="4"/>
+        <v>725</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1450</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:13">
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7">
+        <v>29</v>
+      </c>
+      <c r="C33" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="E33" s="7">
+        <v>100</v>
+      </c>
+      <c r="F33" s="7">
+        <v>640</v>
+      </c>
+      <c r="G33" s="8">
+        <v>150</v>
+      </c>
+      <c r="H33" s="8">
+        <v>150</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:13">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>15500</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="E34" s="7">
+        <v>100</v>
+      </c>
+      <c r="F34" s="7">
+        <v>660</v>
+      </c>
+      <c r="G34" s="8">
+        <v>155</v>
+      </c>
+      <c r="H34" s="8">
+        <v>155</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="3"/>
+        <v>775</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="4"/>
+        <v>775</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1550</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:13">
+      <c r="A35" s="7">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7">
+        <v>31</v>
+      </c>
+      <c r="C35" s="7">
+        <v>16000</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="2"/>
+        <v>3400</v>
+      </c>
+      <c r="E35" s="7">
+        <v>100</v>
+      </c>
+      <c r="F35" s="7">
+        <v>680</v>
+      </c>
+      <c r="G35" s="8">
+        <v>160</v>
+      </c>
+      <c r="H35" s="8">
+        <v>160</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1600</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:13">
+      <c r="A36" s="7">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7">
+        <v>32</v>
+      </c>
+      <c r="C36" s="7">
+        <v>16500</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="E36" s="7">
+        <v>100</v>
+      </c>
+      <c r="F36" s="7">
+        <v>700</v>
+      </c>
+      <c r="G36" s="8">
+        <v>165</v>
+      </c>
+      <c r="H36" s="8">
+        <v>165</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="3"/>
+        <v>825</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="4"/>
+        <v>825</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1650</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:13">
+      <c r="A37" s="7">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7">
+        <v>33</v>
+      </c>
+      <c r="C37" s="7">
+        <v>17000</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="E37" s="7">
+        <v>100</v>
+      </c>
+      <c r="F37" s="7">
+        <v>720</v>
+      </c>
+      <c r="G37" s="8">
+        <v>170</v>
+      </c>
+      <c r="H37" s="8">
+        <v>170</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1700</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:13">
+      <c r="A38" s="7">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7">
+        <v>34</v>
+      </c>
+      <c r="C38" s="7">
+        <v>17500</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="2"/>
+        <v>3700</v>
+      </c>
+      <c r="E38" s="7">
+        <v>100</v>
+      </c>
+      <c r="F38" s="7">
+        <v>740</v>
+      </c>
+      <c r="G38" s="8">
+        <v>175</v>
+      </c>
+      <c r="H38" s="8">
+        <v>175</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="4"/>
+        <v>875</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1750</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:13">
+      <c r="A39" s="7">
+        <v>35</v>
+      </c>
+      <c r="B39" s="7">
+        <v>35</v>
+      </c>
+      <c r="C39" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="E39" s="7">
+        <v>100</v>
+      </c>
+      <c r="F39" s="7">
+        <v>760</v>
+      </c>
+      <c r="G39" s="8">
+        <v>180</v>
+      </c>
+      <c r="H39" s="8">
+        <v>180</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1800</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:13">
+      <c r="A40" s="7">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7">
+        <v>36</v>
+      </c>
+      <c r="C40" s="7">
+        <v>18500</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="2"/>
+        <v>3900</v>
+      </c>
+      <c r="E40" s="7">
+        <v>100</v>
+      </c>
+      <c r="F40" s="7">
+        <v>780</v>
+      </c>
+      <c r="G40" s="8">
+        <v>185</v>
+      </c>
+      <c r="H40" s="8">
+        <v>185</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="3"/>
+        <v>925</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="4"/>
+        <v>925</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1850</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:13">
+      <c r="A41" s="7">
+        <v>37</v>
+      </c>
+      <c r="B41" s="7">
+        <v>37</v>
+      </c>
+      <c r="C41" s="7">
+        <v>19000</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="E41" s="7">
+        <v>100</v>
+      </c>
+      <c r="F41" s="7">
+        <v>800</v>
+      </c>
+      <c r="G41" s="8">
+        <v>190</v>
+      </c>
+      <c r="H41" s="8">
+        <v>190</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1900</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:13">
+      <c r="A42" s="7">
+        <v>38</v>
+      </c>
+      <c r="B42" s="7">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7">
+        <v>19500</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="2"/>
+        <v>4100</v>
+      </c>
+      <c r="E42" s="7">
+        <v>100</v>
+      </c>
+      <c r="F42" s="7">
+        <v>820</v>
+      </c>
+      <c r="G42" s="8">
+        <v>195</v>
+      </c>
+      <c r="H42" s="8">
+        <v>195</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="3"/>
+        <v>975</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1950</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:13">
+      <c r="A43" s="7">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7">
+        <v>39</v>
+      </c>
+      <c r="C43" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="E43" s="7">
+        <v>100</v>
+      </c>
+      <c r="F43" s="7">
+        <v>840</v>
+      </c>
+      <c r="G43" s="8">
         <v>200</v>
       </c>
-      <c r="E6" s="8">
-        <v>150</v>
-      </c>
-      <c r="F6" s="8">
-        <v>15</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8">
-        <v>15</v>
-      </c>
-      <c r="K6" s="8">
-        <v>300</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="H43" s="8">
+        <v>200</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="K43" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L43" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:13">
+      <c r="A44" s="7">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7">
+        <v>40</v>
+      </c>
+      <c r="C44" s="7">
+        <v>20500</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
+      <c r="E44" s="7">
+        <v>100</v>
+      </c>
+      <c r="F44" s="7">
+        <v>860</v>
+      </c>
+      <c r="G44" s="8">
+        <v>205</v>
+      </c>
+      <c r="H44" s="8">
+        <v>205</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="3"/>
+        <v>1025</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="4"/>
+        <v>1025</v>
+      </c>
+      <c r="K44" s="8">
+        <v>2050</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M44" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:13">
+      <c r="A45" s="7">
+        <v>41</v>
+      </c>
+      <c r="B45" s="7">
+        <v>41</v>
+      </c>
+      <c r="C45" s="7">
+        <v>21000</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="E45" s="7">
+        <v>100</v>
+      </c>
+      <c r="F45" s="7">
+        <v>880</v>
+      </c>
+      <c r="G45" s="8">
+        <v>210</v>
+      </c>
+      <c r="H45" s="8">
+        <v>210</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="K45" s="8">
+        <v>2100</v>
+      </c>
+      <c r="L45" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:13">
+      <c r="A46" s="7">
+        <v>42</v>
+      </c>
+      <c r="B46" s="7">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7">
+        <v>21500</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="E46" s="7">
+        <v>100</v>
+      </c>
+      <c r="F46" s="7">
+        <v>900</v>
+      </c>
+      <c r="G46" s="8">
+        <v>215</v>
+      </c>
+      <c r="H46" s="8">
+        <v>215</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="3"/>
+        <v>1075</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="4"/>
+        <v>1075</v>
+      </c>
+      <c r="K46" s="8">
+        <v>2150</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:13">
+      <c r="A47" s="7">
+        <v>43</v>
+      </c>
+      <c r="B47" s="7">
+        <v>43</v>
+      </c>
+      <c r="C47" s="7">
+        <v>22000</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+      <c r="E47" s="7">
+        <v>100</v>
+      </c>
+      <c r="F47" s="7">
+        <v>920</v>
+      </c>
+      <c r="G47" s="8">
+        <v>220</v>
+      </c>
+      <c r="H47" s="8">
+        <v>220</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" si="4"/>
+        <v>1100</v>
+      </c>
+      <c r="K47" s="8">
+        <v>2200</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:13">
+      <c r="A48" s="7">
+        <v>44</v>
+      </c>
+      <c r="B48" s="7">
+        <v>44</v>
+      </c>
+      <c r="C48" s="7">
+        <v>22500</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+      <c r="E48" s="7">
+        <v>100</v>
+      </c>
+      <c r="F48" s="7">
+        <v>940</v>
+      </c>
+      <c r="G48" s="8">
+        <v>225</v>
+      </c>
+      <c r="H48" s="8">
+        <v>225</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="4"/>
+        <v>1125</v>
+      </c>
+      <c r="K48" s="8">
+        <v>2250</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:13">
+      <c r="A49" s="7">
+        <v>45</v>
+      </c>
+      <c r="B49" s="7">
+        <v>45</v>
+      </c>
+      <c r="C49" s="7">
+        <v>23000</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="E49" s="7">
+        <v>100</v>
+      </c>
+      <c r="F49" s="7">
+        <v>960</v>
+      </c>
+      <c r="G49" s="8">
+        <v>230</v>
+      </c>
+      <c r="H49" s="8">
+        <v>230</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="3"/>
+        <v>1150</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="4"/>
+        <v>1150</v>
+      </c>
+      <c r="K49" s="8">
+        <v>2300</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:13">
+      <c r="A50" s="7">
+        <v>46</v>
+      </c>
+      <c r="B50" s="7">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7">
+        <v>23500</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+      <c r="E50" s="7">
+        <v>100</v>
+      </c>
+      <c r="F50" s="7">
+        <v>980</v>
+      </c>
+      <c r="G50" s="8">
+        <v>235</v>
+      </c>
+      <c r="H50" s="8">
+        <v>235</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="3"/>
+        <v>1175</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="4"/>
+        <v>1175</v>
+      </c>
+      <c r="K50" s="8">
+        <v>2350</v>
+      </c>
+      <c r="L50" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:13">
+      <c r="A51" s="7">
+        <v>47</v>
+      </c>
+      <c r="B51" s="7">
+        <v>47</v>
+      </c>
+      <c r="C51" s="7">
+        <v>24000</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="E51" s="7">
+        <v>100</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="8">
+        <v>240</v>
+      </c>
+      <c r="H51" s="8">
+        <v>240</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="K51" s="8">
+        <v>2400</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:13">
+      <c r="A52" s="7">
+        <v>48</v>
+      </c>
+      <c r="B52" s="7">
+        <v>48</v>
+      </c>
+      <c r="C52" s="7">
+        <v>24500</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+      <c r="E52" s="7">
+        <v>100</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1020</v>
+      </c>
+      <c r="G52" s="8">
+        <v>245</v>
+      </c>
+      <c r="H52" s="8">
+        <v>245</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="3"/>
+        <v>1225</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="4"/>
+        <v>1225</v>
+      </c>
+      <c r="K52" s="8">
+        <v>2450</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:13">
+      <c r="A53" s="7">
+        <v>49</v>
+      </c>
+      <c r="B53" s="7">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7">
+        <v>25000</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="2"/>
+        <v>5200</v>
+      </c>
+      <c r="E53" s="7">
+        <v>100</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1040</v>
+      </c>
+      <c r="G53" s="8">
+        <v>250</v>
+      </c>
+      <c r="H53" s="8">
+        <v>250</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="K53" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M53" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:13">
+      <c r="A54" s="7">
+        <v>50</v>
+      </c>
+      <c r="B54" s="7">
+        <v>50</v>
+      </c>
+      <c r="C54" s="7">
+        <v>25500</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="2"/>
+        <v>5300</v>
+      </c>
+      <c r="E54" s="7">
+        <v>100</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1060</v>
+      </c>
+      <c r="G54" s="8">
+        <v>255</v>
+      </c>
+      <c r="H54" s="8">
+        <v>255</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="3"/>
+        <v>1275</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" si="4"/>
+        <v>1275</v>
+      </c>
+      <c r="K54" s="8">
+        <v>2550</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M54" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>